--- a/Sales_Temp.xlsx
+++ b/Sales_Temp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Offshore\RPA-Team-BOTS\Request-Initial-Redemption\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Scans\Old Scans Folder\Offshore\RPA-Team-BOTS\Request-Initial-Redemption\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44073C71-8935-49E0-A037-81FFA0E0ACD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -246,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,7 +580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -587,6 +588,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/Sales_Temp.xlsx
+++ b/Sales_Temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Scans\Old Scans Folder\Offshore\RPA-Team-BOTS\Request-Initial-Redemption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E827740B-BB4E-4D4B-AC9C-8B54EFD0AB4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C7E9F6-6882-4922-BA5C-A4EB48FBA5FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="4440" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,611 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="201">
+  <si>
+    <t xml:space="preserve"> Client  Name</t>
+  </si>
+  <si>
+    <t>Case Ref</t>
+  </si>
+  <si>
+    <t>Fee Earner</t>
+  </si>
+  <si>
+    <t>File Opened</t>
+  </si>
+  <si>
+    <t>Days from file open</t>
+  </si>
+  <si>
+    <t>Lender 1 Name</t>
+  </si>
+  <si>
+    <t>L1 Redem</t>
+  </si>
+  <si>
+    <t>Lender 2 Name</t>
+  </si>
+  <si>
+    <t>L2 Redem</t>
+  </si>
+  <si>
+    <t>Escobar Munoz</t>
+  </si>
+  <si>
+    <t>188808</t>
+  </si>
+  <si>
+    <t>JT</t>
+  </si>
+  <si>
+    <t>Barclays</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Barclays</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>187817</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Barclays Bank Uk Plc</t>
+  </si>
+  <si>
+    <t>OHara</t>
+  </si>
+  <si>
+    <t>189034</t>
+  </si>
+  <si>
+    <t>VCS</t>
+  </si>
+  <si>
+    <t>Nram Limited</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Barclays Bank Uk Plc</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Haworth</t>
+  </si>
+  <si>
+    <t>188357</t>
+  </si>
+  <si>
+    <t>KLN</t>
+  </si>
+  <si>
+    <t>Beverley Building Society</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Beverley Building Society</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>188475</t>
+  </si>
+  <si>
+    <t>VL</t>
+  </si>
+  <si>
+    <t>Birmingham Midshires Division</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Birmingham Midshires Division</t>
+  </si>
+  <si>
+    <t>Mahmood</t>
+  </si>
+  <si>
+    <t>187968</t>
+  </si>
+  <si>
+    <t>Capital Home Loans Limited</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Capital Home Loans Limited</t>
+  </si>
+  <si>
+    <t>Dailey</t>
+  </si>
+  <si>
+    <t>189243</t>
+  </si>
+  <si>
+    <t>Co-Operative Bank</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Co-Operative Bank</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>188639</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Coventry Building Society</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Coventry Building Society</t>
+  </si>
+  <si>
+    <t>Rimington-Hicks</t>
+  </si>
+  <si>
+    <t>188225</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Derbyshire Home Loans Limited</t>
+  </si>
+  <si>
+    <t>Prestige Finance Limited</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Derbyshire Home Loans Limited</t>
+  </si>
+  <si>
+    <t>Hawthorne</t>
+  </si>
+  <si>
+    <t>185117</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Guildford Borough Council</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Guildford Borough Council</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>188451</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>189202</t>
+  </si>
+  <si>
+    <t>Ghag</t>
+  </si>
+  <si>
+    <t>189282</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Halifax</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>187969</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Halifax Division</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>188402</t>
+  </si>
+  <si>
+    <t>SACW</t>
+  </si>
+  <si>
+    <t>Montero</t>
+  </si>
+  <si>
+    <t>188464</t>
+  </si>
+  <si>
+    <t>Crofts</t>
+  </si>
+  <si>
+    <t>188643</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>189152</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Halifax Division</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>181594</t>
+  </si>
+  <si>
+    <t>Halifax Plc</t>
+  </si>
+  <si>
+    <t>Homes and Communities Agency</t>
+  </si>
+  <si>
+    <t>Nagi</t>
+  </si>
+  <si>
+    <t>183771</t>
+  </si>
+  <si>
+    <t>LMO</t>
+  </si>
+  <si>
+    <t>Optimum Credit Limited</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Halifax Plc</t>
+  </si>
+  <si>
+    <t>Pourmahak</t>
+  </si>
+  <si>
+    <t>188446</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>189204</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: HSBC</t>
+  </si>
+  <si>
+    <t>Biggs</t>
+  </si>
+  <si>
+    <t>189062</t>
+  </si>
+  <si>
+    <t>Hsbc Bank Plc</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Hsbc Bank Plc</t>
+  </si>
+  <si>
+    <t>Whitley</t>
+  </si>
+  <si>
+    <t>188059</t>
+  </si>
+  <si>
+    <t>Hsbc Uk Bank Plc</t>
+  </si>
+  <si>
+    <t>Goddard</t>
+  </si>
+  <si>
+    <t>188168</t>
+  </si>
+  <si>
+    <t>Wakeman</t>
+  </si>
+  <si>
+    <t>189083</t>
+  </si>
+  <si>
+    <t>DJL</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Hsbc Uk Bank Plc</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>188680</t>
+  </si>
+  <si>
+    <t>Intelligent Finance</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Intelligent Finance</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
+    <t>188457</t>
+  </si>
+  <si>
+    <t>Kent Reliance</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Kent Reliance</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>188173</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>Landmark Mortgages Limited</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Landmark Mortgages Limited</t>
+  </si>
+  <si>
+    <t>Hanley</t>
+  </si>
+  <si>
+    <t>188934</t>
+  </si>
+  <si>
+    <t>Leeds Building Society</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Leeds Building Society</t>
+  </si>
+  <si>
+    <t>McGuinness</t>
+  </si>
+  <si>
+    <t>184631</t>
+  </si>
+  <si>
+    <t>Lloyds Bank Plc</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Lloyds Bank Plc</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>188423</t>
+  </si>
+  <si>
+    <t>Mortgages 1 Limited</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Mortgages 1 Limited</t>
+  </si>
+  <si>
+    <t>Parfitt</t>
+  </si>
+  <si>
+    <t>188620</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: n/a</t>
+  </si>
+  <si>
+    <t>Sharp</t>
+  </si>
+  <si>
+    <t>188683</t>
+  </si>
+  <si>
+    <t>Nat West Bank</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Nat West Bank</t>
+  </si>
+  <si>
+    <t>Foster</t>
+  </si>
+  <si>
+    <t>188406</t>
+  </si>
+  <si>
+    <t>National Westminster Bank Plc</t>
+  </si>
+  <si>
+    <t>188935</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Wildman</t>
+  </si>
+  <si>
+    <t>188945</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: National Westminster Bank Plc</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>188452</t>
+  </si>
+  <si>
+    <t>Nationwide</t>
+  </si>
+  <si>
+    <t>Meksenas</t>
+  </si>
+  <si>
+    <t>188887</t>
+  </si>
+  <si>
+    <t>Marsh</t>
+  </si>
+  <si>
+    <t>189061</t>
+  </si>
+  <si>
+    <t>189069</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Nationwide</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Egan</t>
+  </si>
+  <si>
+    <t>188746</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Nationwide Building Society</t>
+  </si>
+  <si>
+    <t>Longhurst</t>
+  </si>
+  <si>
+    <t>189147</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Nationwide Building Society</t>
+  </si>
+  <si>
+    <t>Duro</t>
+  </si>
+  <si>
+    <t>188166</t>
+  </si>
+  <si>
+    <t>None -rental</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: None -rental</t>
+  </si>
+  <si>
+    <t>Corney</t>
+  </si>
+  <si>
+    <t>188980</t>
+  </si>
+  <si>
+    <t>Paragon Bank Plc</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Paragon Bank Plc</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>188379</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Santander</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>189149</t>
+  </si>
+  <si>
+    <t>Santander Uk Plc</t>
+  </si>
+  <si>
+    <t>Ingham</t>
+  </si>
+  <si>
+    <t>189206</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Santander Uk Plc</t>
+  </si>
+  <si>
+    <t>Conboy</t>
+  </si>
+  <si>
+    <t>184373</t>
+  </si>
+  <si>
+    <t>Scottish Widows</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Scottish Widows</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>188744</t>
+  </si>
+  <si>
+    <t>Skipton Building Society</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Skipton Building Society</t>
+  </si>
+  <si>
+    <t>Lacey</t>
+  </si>
+  <si>
+    <t>188370</t>
+  </si>
+  <si>
+    <t>The Co-Operative Bank Plc</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,7 +657,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
@@ -358,65 +963,2382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:D30"/>
+  <dimension ref="A2:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="1"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44176</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44160</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44181</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44168</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44172</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44162</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-37</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44187</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44173</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44167</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-32</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44116</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-83</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44171</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-28</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44187</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44188</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44162</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-37</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44169</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-30</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44172</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44174</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-25</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44186</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2">
+        <v>44046</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-153</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="1">
+        <v>110345.86</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="2">
+        <v>44088</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-111</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="1">
+        <v>28957.4</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2">
+        <v>44170</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-29</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="2">
+        <v>44187</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-12</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="2">
+        <v>44182</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-17</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-34</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="2">
+        <v>44167</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-32</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="2">
+        <v>44182</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-17</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="2">
+        <v>44174</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-25</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44172</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-27</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="2">
+        <v>44167</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-32</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44180</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-19</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="2">
+        <v>44105</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-94</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="2">
+        <v>44169</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-30</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="2">
+        <v>44173</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-26</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="2">
+        <v>44174</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-25</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="2">
+        <v>44169</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-30</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="2">
+        <v>44180</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-19</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="2">
+        <v>44180</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-19</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="2">
+        <v>44171</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-28</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="2">
+        <v>44179</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-20</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="2">
+        <v>44182</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-17</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="2">
+        <v>44182</v>
+      </c>
+      <c r="E67" s="1">
+        <v>-17</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="2">
+        <v>44175</v>
+      </c>
+      <c r="E69" s="1">
+        <v>-24</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="2">
+        <v>44184</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-15</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="2">
+        <v>44167</v>
+      </c>
+      <c r="E72" s="1">
+        <v>-32</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="2">
+        <v>44181</v>
+      </c>
+      <c r="E74" s="1">
+        <v>-18</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="2">
+        <v>44168</v>
+      </c>
+      <c r="E76" s="1">
+        <v>-31</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="2">
+        <v>44185</v>
+      </c>
+      <c r="E78" s="1">
+        <v>-14</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="2">
+        <v>44187</v>
+      </c>
+      <c r="E79" s="1">
+        <v>-12</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" s="2">
+        <v>44099</v>
+      </c>
+      <c r="E81" s="1">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="2">
+        <v>44175</v>
+      </c>
+      <c r="E83" s="1">
+        <v>-24</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="2">
+        <v>44168</v>
+      </c>
+      <c r="E85" s="1">
+        <v>-31</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D86" s="2"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D88" s="2"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D89" s="2"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D91" s="2"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D93" s="2"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Sales_Temp.xlsx
+++ b/Sales_Temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Scans\Old Scans Folder\Offshore\RPA-Team-BOTS\Request-Initial-Redemption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C7E9F6-6882-4922-BA5C-A4EB48FBA5FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB9B955-0BC4-41B3-A603-75053A9BC3F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="675" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="138">
   <si>
     <t xml:space="preserve"> Client  Name</t>
   </si>
@@ -211,27 +211,9 @@
     <t>Halifax</t>
   </si>
   <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>189202</t>
-  </si>
-  <si>
-    <t>Ghag</t>
-  </si>
-  <si>
-    <t>189282</t>
-  </si>
-  <si>
     <t>NG</t>
   </si>
   <si>
-    <t>Totals for Lender 1 Name: Halifax</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Tobias</t>
   </si>
   <si>
@@ -244,39 +226,9 @@
     <t>Halifax Division</t>
   </si>
   <si>
-    <t>Davidson</t>
-  </si>
-  <si>
-    <t>188402</t>
-  </si>
-  <si>
     <t>SACW</t>
   </si>
   <si>
-    <t>Montero</t>
-  </si>
-  <si>
-    <t>188464</t>
-  </si>
-  <si>
-    <t>Crofts</t>
-  </si>
-  <si>
-    <t>188643</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>189152</t>
-  </si>
-  <si>
-    <t>Totals for Lender 1 Name: Halifax Division</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Young</t>
   </si>
   <si>
@@ -289,21 +241,9 @@
     <t>Homes and Communities Agency</t>
   </si>
   <si>
-    <t>Nagi</t>
-  </si>
-  <si>
-    <t>183771</t>
-  </si>
-  <si>
     <t>LMO</t>
   </si>
   <si>
-    <t>Optimum Credit Limited</t>
-  </si>
-  <si>
-    <t>Totals for Lender 1 Name: Halifax Plc</t>
-  </si>
-  <si>
     <t>Pourmahak</t>
   </si>
   <si>
@@ -313,18 +253,6 @@
     <t>HSBC</t>
   </si>
   <si>
-    <t>Logan</t>
-  </si>
-  <si>
-    <t>189204</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Totals for Lender 1 Name: HSBC</t>
-  </si>
-  <si>
     <t>Biggs</t>
   </si>
   <si>
@@ -334,9 +262,6 @@
     <t>Hsbc Bank Plc</t>
   </si>
   <si>
-    <t>Totals for Lender 1 Name: Hsbc Bank Plc</t>
-  </si>
-  <si>
     <t>Whitley</t>
   </si>
   <si>
@@ -346,24 +271,6 @@
     <t>Hsbc Uk Bank Plc</t>
   </si>
   <si>
-    <t>Goddard</t>
-  </si>
-  <si>
-    <t>188168</t>
-  </si>
-  <si>
-    <t>Wakeman</t>
-  </si>
-  <si>
-    <t>189083</t>
-  </si>
-  <si>
-    <t>DJL</t>
-  </si>
-  <si>
-    <t>Totals for Lender 1 Name: Hsbc Uk Bank Plc</t>
-  </si>
-  <si>
     <t>Nelson</t>
   </si>
   <si>
@@ -373,9 +280,6 @@
     <t>Intelligent Finance</t>
   </si>
   <si>
-    <t>Totals for Lender 1 Name: Intelligent Finance</t>
-  </si>
-  <si>
     <t>Reid</t>
   </si>
   <si>
@@ -385,9 +289,6 @@
     <t>Kent Reliance</t>
   </si>
   <si>
-    <t>Totals for Lender 1 Name: Kent Reliance</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
@@ -400,9 +301,6 @@
     <t>Landmark Mortgages Limited</t>
   </si>
   <si>
-    <t>Totals for Lender 1 Name: Landmark Mortgages Limited</t>
-  </si>
-  <si>
     <t>Hanley</t>
   </si>
   <si>
@@ -412,9 +310,6 @@
     <t>Leeds Building Society</t>
   </si>
   <si>
-    <t>Totals for Lender 1 Name: Leeds Building Society</t>
-  </si>
-  <si>
     <t>McGuinness</t>
   </si>
   <si>
@@ -436,9 +331,6 @@
     <t>Mortgages 1 Limited</t>
   </si>
   <si>
-    <t>Totals for Lender 1 Name: Mortgages 1 Limited</t>
-  </si>
-  <si>
     <t>Parfitt</t>
   </si>
   <si>
@@ -448,9 +340,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Totals for Lender 1 Name: n/a</t>
-  </si>
-  <si>
     <t>Sharp</t>
   </si>
   <si>
@@ -460,9 +349,6 @@
     <t>Nat West Bank</t>
   </si>
   <si>
-    <t>Totals for Lender 1 Name: Nat West Bank</t>
-  </si>
-  <si>
     <t>Foster</t>
   </si>
   <si>
@@ -472,21 +358,9 @@
     <t>National Westminster Bank Plc</t>
   </si>
   <si>
-    <t>188935</t>
-  </si>
-  <si>
     <t>TD</t>
   </si>
   <si>
-    <t>Wildman</t>
-  </si>
-  <si>
-    <t>188945</t>
-  </si>
-  <si>
-    <t>Totals for Lender 1 Name: National Westminster Bank Plc</t>
-  </si>
-  <si>
     <t>Evans</t>
   </si>
   <si>
@@ -496,27 +370,6 @@
     <t>Nationwide</t>
   </si>
   <si>
-    <t>Meksenas</t>
-  </si>
-  <si>
-    <t>188887</t>
-  </si>
-  <si>
-    <t>Marsh</t>
-  </si>
-  <si>
-    <t>189061</t>
-  </si>
-  <si>
-    <t>189069</t>
-  </si>
-  <si>
-    <t>Totals for Lender 1 Name: Nationwide</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Egan</t>
   </si>
   <si>
@@ -529,15 +382,6 @@
     <t>Nationwide Building Society</t>
   </si>
   <si>
-    <t>Longhurst</t>
-  </si>
-  <si>
-    <t>189147</t>
-  </si>
-  <si>
-    <t>Totals for Lender 1 Name: Nationwide Building Society</t>
-  </si>
-  <si>
     <t>Duro</t>
   </si>
   <si>
@@ -547,9 +391,6 @@
     <t>None -rental</t>
   </si>
   <si>
-    <t>Totals for Lender 1 Name: None -rental</t>
-  </si>
-  <si>
     <t>Corney</t>
   </si>
   <si>
@@ -559,9 +400,6 @@
     <t>Paragon Bank Plc</t>
   </si>
   <si>
-    <t>Totals for Lender 1 Name: Paragon Bank Plc</t>
-  </si>
-  <si>
     <t>Scott</t>
   </si>
   <si>
@@ -571,15 +409,6 @@
     <t>Santander</t>
   </si>
   <si>
-    <t>Totals for Lender 1 Name: Santander</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>189149</t>
-  </si>
-  <si>
     <t>Santander Uk Plc</t>
   </si>
   <si>
@@ -589,9 +418,6 @@
     <t>189206</t>
   </si>
   <si>
-    <t>Totals for Lender 1 Name: Santander Uk Plc</t>
-  </si>
-  <si>
     <t>Conboy</t>
   </si>
   <si>
@@ -599,21 +425,6 @@
   </si>
   <si>
     <t>Scottish Widows</t>
-  </si>
-  <si>
-    <t>Totals for Lender 1 Name: Scottish Widows</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>188744</t>
-  </si>
-  <si>
-    <t>Skipton Building Society</t>
-  </si>
-  <si>
-    <t>Totals for Lender 1 Name: Skipton Building Society</t>
   </si>
   <si>
     <t>Lacey</t>
@@ -963,9 +774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I95"/>
+  <dimension ref="A2:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1558,22 +1371,22 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2">
-        <v>44187</v>
+        <v>44162</v>
       </c>
       <c r="E23" s="1">
-        <v>-12</v>
+        <v>-37</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1584,25 +1397,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2">
-        <v>44188</v>
+        <v>44046</v>
       </c>
       <c r="E24" s="1">
-        <v>-11</v>
+        <v>-153</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>110345.86</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -1610,84 +1426,43 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44170</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-29</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="2">
-        <v>44162</v>
-      </c>
-      <c r="E26" s="1">
-        <v>-37</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="2">
-        <v>44169</v>
-      </c>
-      <c r="E27" s="1">
-        <v>-30</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1697,16 +1472,16 @@
         <v>78</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2">
-        <v>44172</v>
+        <v>44182</v>
       </c>
       <c r="E28" s="1">
-        <v>-27</v>
+        <v>-17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1716,50 +1491,31 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="2">
-        <v>44174</v>
-      </c>
-      <c r="E29" s="1">
-        <v>-25</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-34</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="2">
-        <v>44186</v>
-      </c>
-      <c r="E30" s="1">
-        <v>-13</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
@@ -1768,165 +1524,77 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="2">
-        <v>44046</v>
-      </c>
-      <c r="E32" s="1">
-        <v>-153</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="1">
-        <v>110345.86</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="2">
-        <v>44088</v>
-      </c>
-      <c r="E33" s="1">
-        <v>-111</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="1">
-        <v>28957.4</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="D34" s="2">
+        <v>44174</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-25</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="2">
-        <v>44170</v>
-      </c>
-      <c r="E35" s="1">
-        <v>-29</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
-        <v>44187</v>
+        <v>44172</v>
       </c>
       <c r="E36" s="1">
-        <v>-12</v>
+        <v>-27</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1936,52 +1604,30 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D38" s="2">
-        <v>44182</v>
+        <v>44167</v>
       </c>
       <c r="E38" s="1">
-        <v>-17</v>
+        <v>-32</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1991,52 +1637,30 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D40" s="2">
-        <v>44165</v>
+        <v>44180</v>
       </c>
       <c r="E40" s="1">
-        <v>-34</v>
+        <v>-19</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2046,49 +1670,30 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="2">
-        <v>44167</v>
-      </c>
-      <c r="E41" s="1">
-        <v>-32</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="D42" s="2">
-        <v>44182</v>
+        <v>44105</v>
       </c>
       <c r="E42" s="1">
-        <v>-17</v>
+        <v>-94</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -2099,7 +1704,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>14</v>
@@ -2114,7 +1719,7 @@
         <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>14</v>
@@ -2128,22 +1733,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2">
-        <v>44174</v>
+        <v>44169</v>
       </c>
       <c r="E44" s="1">
-        <v>-25</v>
+        <v>-30</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -2154,51 +1759,48 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="D45" s="2">
+        <v>44173</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-26</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="E46" s="1">
-        <v>-27</v>
+        <v>-25</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2209,51 +1811,48 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="D47" s="2">
+        <v>44169</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-30</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>14</v>
+        <v>111</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="D48" s="2">
-        <v>44167</v>
+        <v>44171</v>
       </c>
       <c r="E48" s="1">
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2264,51 +1863,48 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>14</v>
+        <v>118</v>
+      </c>
+      <c r="D49" s="2">
+        <v>44175</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-24</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>14</v>
+        <v>119</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2">
-        <v>44180</v>
+        <v>44167</v>
       </c>
       <c r="E50" s="1">
-        <v>-19</v>
+        <v>-32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2319,51 +1915,48 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D51" s="2">
+        <v>44181</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-18</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>14</v>
+        <v>125</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
-        <v>44105</v>
+        <v>44168</v>
       </c>
       <c r="E52" s="1">
-        <v>-94</v>
+        <v>-31</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2374,51 +1967,48 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>14</v>
+        <v>112</v>
+      </c>
+      <c r="D53" s="2">
+        <v>44187</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-12</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D54" s="2">
-        <v>44169</v>
+        <v>44099</v>
       </c>
       <c r="E54" s="1">
-        <v>-30</v>
+        <v>-100</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2429,916 +2019,100 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="D55" s="2">
+        <v>44168</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-31</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>14</v>
+        <v>137</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="2">
-        <v>44173</v>
-      </c>
-      <c r="E56" s="1">
-        <v>-26</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="2">
-        <v>44174</v>
-      </c>
-      <c r="E58" s="1">
-        <v>-25</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="2">
-        <v>44169</v>
-      </c>
-      <c r="E60" s="1">
-        <v>-30</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D61" s="2">
-        <v>44180</v>
-      </c>
-      <c r="E61" s="1">
-        <v>-19</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="2">
-        <v>44180</v>
-      </c>
-      <c r="E62" s="1">
-        <v>-19</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="2">
-        <v>44171</v>
-      </c>
-      <c r="E64" s="1">
-        <v>-28</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" s="2">
-        <v>44179</v>
-      </c>
-      <c r="E65" s="1">
-        <v>-20</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="2">
-        <v>44182</v>
-      </c>
-      <c r="E66" s="1">
-        <v>-17</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" s="2">
-        <v>44182</v>
-      </c>
-      <c r="E67" s="1">
-        <v>-17</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" s="2">
-        <v>44175</v>
-      </c>
-      <c r="E69" s="1">
-        <v>-24</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D70" s="2">
-        <v>44184</v>
-      </c>
-      <c r="E70" s="1">
-        <v>-15</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="2">
-        <v>44167</v>
-      </c>
-      <c r="E72" s="1">
-        <v>-32</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0</v>
-      </c>
-      <c r="I72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="2">
-        <v>44181</v>
-      </c>
-      <c r="E74" s="1">
-        <v>-18</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0</v>
-      </c>
-      <c r="I74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="2">
-        <v>44168</v>
-      </c>
-      <c r="E76" s="1">
-        <v>-31</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78" s="2">
-        <v>44185</v>
-      </c>
-      <c r="E78" s="1">
-        <v>-14</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G78" s="1">
-        <v>0</v>
-      </c>
-      <c r="I78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D79" s="2">
-        <v>44187</v>
-      </c>
-      <c r="E79" s="1">
-        <v>-12</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0</v>
-      </c>
-      <c r="I79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D81" s="2">
-        <v>44099</v>
-      </c>
-      <c r="E81" s="1">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0</v>
-      </c>
-      <c r="I81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" s="2">
-        <v>44175</v>
-      </c>
-      <c r="E83" s="1">
-        <v>-24</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0</v>
-      </c>
-      <c r="I83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="2">
-        <v>44168</v>
-      </c>
-      <c r="E85" s="1">
-        <v>-31</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0</v>
-      </c>
-      <c r="I85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D86" s="2"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D88" s="2"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D89" s="2"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D91" s="2"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D93" s="2"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Sales_Temp.xlsx
+++ b/Sales_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Scans\Old Scans Folder\Offshore\RPA-Team-BOTS\Request-Initial-Redemption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9119EEA-3B20-4A0A-BDCE-A50A7DCD5883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9A8F13-8038-4EC6-A656-2758AB4B7C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,33 +20,258 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="84">
+  <si>
+    <t xml:space="preserve"> Client  Name</t>
+  </si>
+  <si>
+    <t>Case Ref</t>
+  </si>
+  <si>
+    <t>Fee Earner</t>
+  </si>
+  <si>
+    <t>File Opened</t>
+  </si>
+  <si>
+    <t>Days from file open</t>
+  </si>
+  <si>
+    <t>Lender 1 Name</t>
+  </si>
+  <si>
+    <t>L1 Redem</t>
+  </si>
+  <si>
+    <t>Lender 2 Name</t>
+  </si>
+  <si>
+    <t>L2 Redem</t>
+  </si>
+  <si>
+    <t>Summers</t>
+  </si>
+  <si>
+    <t>189604</t>
+  </si>
   <si>
     <t>ME</t>
   </si>
   <si>
+    <t>Aviva Equity Release Uk Limited</t>
+  </si>
+  <si>
+    <t>Snell</t>
+  </si>
+  <si>
+    <t>189642</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Carr</t>
+  </si>
+  <si>
+    <t>189817</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Aviva Equity Release Uk Limite</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Inkpin</t>
+  </si>
+  <si>
+    <t>188588</t>
+  </si>
+  <si>
+    <t>DJL</t>
+  </si>
+  <si>
+    <t>Aviva Equity Release Uk Ltd</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Aviva Equity Release Uk Ltd</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Taak</t>
+  </si>
+  <si>
+    <t>189835</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Bank Of Scotland Plc</t>
+  </si>
+  <si>
+    <t>Stringer</t>
+  </si>
+  <si>
+    <t>189885</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Bank Of Scotland Plc</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>OHara</t>
+  </si>
+  <si>
+    <t>189034</t>
+  </si>
+  <si>
+    <t>VCS</t>
+  </si>
+  <si>
+    <t>Barclays Bank Uk Plc</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>189224</t>
+  </si>
+  <si>
+    <t>Georgiades</t>
+  </si>
+  <si>
+    <t>189618</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>190014</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Barclays Bank Uk Plc</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>188475</t>
+  </si>
+  <si>
+    <t>VL</t>
+  </si>
+  <si>
+    <t>Birmingham Midshires Division</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Birmingham Midshires Division</t>
+  </si>
+  <si>
+    <t>Falshaw</t>
+  </si>
+  <si>
+    <t>189609</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Charter Court Financial Services Lim</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Charter Court Financial Servic</t>
+  </si>
+  <si>
+    <t>Dailey</t>
+  </si>
+  <si>
+    <t>189243</t>
+  </si>
+  <si>
+    <t>KLN</t>
+  </si>
+  <si>
+    <t>Co-Operative Bank</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Co-Operative Bank</t>
+  </si>
+  <si>
+    <t>Hawthorne</t>
+  </si>
+  <si>
+    <t>185117</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Guildford Borough Council</t>
+  </si>
+  <si>
+    <t>Halifax Plc</t>
+  </si>
+  <si>
+    <t>Taggart</t>
+  </si>
+  <si>
+    <t>189893</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Halifax Plc</t>
+  </si>
+  <si>
+    <t>Mardle</t>
+  </si>
+  <si>
+    <t>189928</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Handelsbanken Plc</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>183505</t>
+  </si>
+  <si>
     <t>Tsb Bank Plc</t>
   </si>
   <si>
-    <t>Chandler</t>
-  </si>
-  <si>
-    <t>183505</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>McGuinness</t>
-  </si>
-  <si>
-    <t>184631</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>Lloyds Bank Plc</t>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>188452</t>
+  </si>
+  <si>
+    <t>Nationwide</t>
   </si>
 </sst>
 </file>
@@ -394,164 +619,792 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I89"/>
+  <dimension ref="A2:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44202</v>
+      </c>
+      <c r="E3">
+        <v>-11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44203</v>
+      </c>
+      <c r="E4">
+        <v>-10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44207</v>
+      </c>
+      <c r="E5">
+        <v>-6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44173</v>
+      </c>
+      <c r="E7">
+        <v>-40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44208</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44208</v>
+      </c>
+      <c r="E10">
+        <v>-5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44181</v>
+      </c>
+      <c r="E12">
+        <v>-32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44187</v>
+      </c>
+      <c r="E13">
+        <v>-26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44203</v>
+      </c>
+      <c r="E14">
+        <v>-10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44210</v>
+      </c>
+      <c r="E15">
+        <v>-3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44172</v>
+      </c>
+      <c r="E17">
+        <v>-41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44202</v>
+      </c>
+      <c r="E19">
+        <v>-11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44187</v>
+      </c>
+      <c r="E21">
+        <v>-26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44116</v>
+      </c>
+      <c r="E23">
+        <v>-97</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44209</v>
+      </c>
+      <c r="E33">
+        <v>-4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44209</v>
+      </c>
+      <c r="E35">
+        <v>-4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3">
         <v>44082</v>
       </c>
-      <c r="E2" s="4">
-        <v>-76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44105</v>
-      </c>
-      <c r="E3" s="4">
-        <v>-66</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4">
+        <v>-117</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3">
+        <v>44171</v>
+      </c>
+      <c r="E37" s="4">
+        <v>-28</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
@@ -640,6 +1493,12 @@
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Sales_Temp.xlsx
+++ b/Sales_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Scans\Old Scans Folder\Offshore\RPA-Team-BOTS\Request-Initial-Redemption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863753F6-301F-48B1-94CD-4A6FDEA6C2F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1498D9-704E-492B-89BB-6444EE784636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="205">
   <si>
     <t xml:space="preserve"> Client  Name</t>
   </si>
@@ -61,19 +61,31 @@
     <t>Aviva Equity Release Uk Limited</t>
   </si>
   <si>
+    <t>Snell</t>
+  </si>
+  <si>
+    <t>189642</t>
+  </si>
+  <si>
     <t>AM</t>
   </si>
   <si>
-    <t>Oxley</t>
-  </si>
-  <si>
-    <t>190730</t>
+    <t>Totals for Lender 1 Name: Aviva Equity Release Uk Limite</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>VCS</t>
   </si>
   <si>
-    <t>Bank of Ireland</t>
+    <t>Totals for Lender 1 Name: Bank of Ireland</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Hibbert</t>
@@ -88,33 +100,138 @@
     <t>Bank of Scotland</t>
   </si>
   <si>
+    <t>Totals for Lender 1 Name: Bank of Scotland</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>191019</t>
+  </si>
+  <si>
     <t>NG</t>
   </si>
   <si>
+    <t>Bank Of Scotland Plc</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Bank Of Scotland Plc</t>
+  </si>
+  <si>
+    <t>Dodkins</t>
+  </si>
+  <si>
+    <t>188899</t>
+  </si>
+  <si>
+    <t>Barclays</t>
+  </si>
+  <si>
     <t>Phillips</t>
   </si>
   <si>
+    <t>190745</t>
+  </si>
+  <si>
     <t>JAW</t>
   </si>
   <si>
+    <t>Totals for Lender 1 Name: Barclays</t>
+  </si>
+  <si>
+    <t>Clement</t>
+  </si>
+  <si>
+    <t>190141</t>
+  </si>
+  <si>
     <t>GB</t>
   </si>
   <si>
+    <t>Barclays Bank Plc.</t>
+  </si>
+  <si>
+    <t>Sanderson</t>
+  </si>
+  <si>
+    <t>190153</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Dorrell</t>
+  </si>
+  <si>
+    <t>190517</t>
+  </si>
+  <si>
     <t>DJL</t>
   </si>
   <si>
+    <t>Totals for Lender 1 Name: Barclays Bank Plc.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>186806</t>
+  </si>
+  <si>
     <t>Barclays Bank Uk Plc</t>
   </si>
   <si>
     <t>Unknown</t>
   </si>
   <si>
+    <t>Downward</t>
+  </si>
+  <si>
+    <t>187873</t>
+  </si>
+  <si>
+    <t>OHara</t>
+  </si>
+  <si>
+    <t>189034</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>189224</t>
+  </si>
+  <si>
+    <t>Hayden</t>
+  </si>
+  <si>
+    <t>189740</t>
+  </si>
+  <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>190014</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
     <t>Reynolds</t>
   </si>
   <si>
     <t>190767</t>
   </si>
   <si>
+    <t>Totals for Lender 1 Name: Barclays Bank Uk Plc</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>188475</t>
   </si>
   <si>
@@ -124,45 +241,141 @@
     <t>Birmingham Midshires Division</t>
   </si>
   <si>
-    <t>Willden</t>
-  </si>
-  <si>
-    <t>190231</t>
-  </si>
-  <si>
-    <t>Clydesdale Bank PLC</t>
-  </si>
-  <si>
-    <t>Campbell</t>
-  </si>
-  <si>
-    <t>190980</t>
-  </si>
-  <si>
-    <t>Foundation Home Loans</t>
-  </si>
-  <si>
-    <t>Dunning</t>
-  </si>
-  <si>
-    <t>190304</t>
-  </si>
-  <si>
-    <t>Godiva Mortgages Limited</t>
+    <t>Totals for Lender 1 Name: Birmingham Midshires Division</t>
+  </si>
+  <si>
+    <t>JPH</t>
+  </si>
+  <si>
+    <t>Holt - TEST - JON</t>
+  </si>
+  <si>
+    <t>189449</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Nram Limited</t>
+  </si>
+  <si>
+    <t>Taggart</t>
+  </si>
+  <si>
+    <t>189894</t>
+  </si>
+  <si>
+    <t>Brosnan</t>
+  </si>
+  <si>
+    <t>190423</t>
+  </si>
+  <si>
+    <t>SACW</t>
+  </si>
+  <si>
+    <t>190473</t>
+  </si>
+  <si>
+    <t>LMO</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Halifax</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Garrard</t>
+  </si>
+  <si>
+    <t>185606</t>
+  </si>
+  <si>
+    <t>Halifax Division</t>
   </si>
   <si>
     <t>Homes and Communities Agency</t>
   </si>
   <si>
+    <t>Skelding</t>
+  </si>
+  <si>
+    <t>186654</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>190577</t>
+  </si>
+  <si>
+    <t>Bhat</t>
+  </si>
+  <si>
+    <t>190749</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Halifax Division</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>181594</t>
+  </si>
+  <si>
     <t>Halifax Plc</t>
   </si>
   <si>
+    <t>Nagi</t>
+  </si>
+  <si>
+    <t>183771</t>
+  </si>
+  <si>
+    <t>Optimum Credit Limited</t>
+  </si>
+  <si>
+    <t>Hindley</t>
+  </si>
+  <si>
+    <t>190157</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>190357</t>
+  </si>
+  <si>
+    <t>Coates</t>
+  </si>
+  <si>
+    <t>190429</t>
+  </si>
+  <si>
+    <t>KLN</t>
+  </si>
+  <si>
+    <t>Bagnall</t>
+  </si>
+  <si>
+    <t>190634</t>
+  </si>
+  <si>
     <t>Patel</t>
   </si>
   <si>
     <t>190915</t>
   </si>
   <si>
+    <t>Totals for Lender 1 Name: Halifax Plc</t>
+  </si>
+  <si>
     <t>Mardle</t>
   </si>
   <si>
@@ -175,21 +388,99 @@
     <t>Handelsbanken Plc</t>
   </si>
   <si>
+    <t>Totals for Lender 1 Name: Handelsbanken Plc</t>
+  </si>
+  <si>
+    <t>Pourmahak</t>
+  </si>
+  <si>
+    <t>188446</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>Ingham</t>
+  </si>
+  <si>
+    <t>190919</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: HSBC</t>
+  </si>
+  <si>
+    <t>Keirle</t>
+  </si>
+  <si>
+    <t>180801</t>
+  </si>
+  <si>
+    <t>Hsbc Bank Plc</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Hsbc Bank Plc</t>
+  </si>
+  <si>
+    <t>Sargeant</t>
+  </si>
+  <si>
+    <t>184577</t>
+  </si>
+  <si>
     <t>Hsbc Uk Bank Plc</t>
   </si>
   <si>
+    <t>Goddard</t>
+  </si>
+  <si>
+    <t>188168</t>
+  </si>
+  <si>
+    <t>Wells</t>
+  </si>
+  <si>
+    <t>189490</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
+    <t>190801</t>
+  </si>
+  <si>
+    <t>KMIOTEK</t>
+  </si>
+  <si>
+    <t>190872</t>
+  </si>
+  <si>
     <t>Roberts</t>
   </si>
   <si>
     <t>190978</t>
   </si>
   <si>
+    <t>Totals for Lender 1 Name: Hsbc Uk Bank Plc</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>McClintock</t>
+  </si>
+  <si>
+    <t>190472</t>
+  </si>
+  <si>
     <t>Lloyds Bank Plc</t>
   </si>
   <si>
+    <t>Wybrew</t>
+  </si>
+  <si>
+    <t>190633</t>
+  </si>
+  <si>
     <t>Sutcliffe</t>
   </si>
   <si>
@@ -199,6 +490,15 @@
     <t>Homes And Communities Agency</t>
   </si>
   <si>
+    <t>Totals for Lender 1 Name: Lloyds Bank Plc</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>190798</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -208,124 +508,133 @@
     <t>190850</t>
   </si>
   <si>
+    <t>Totals for Lender 1 Name: n/a</t>
+  </si>
+  <si>
+    <t>Hipple</t>
+  </si>
+  <si>
+    <t>188436</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: NA</t>
+  </si>
+  <si>
+    <t>Dellaway</t>
+  </si>
+  <si>
+    <t>188856</t>
+  </si>
+  <si>
     <t>National Westminster Bank Plc</t>
   </si>
   <si>
+    <t>Kulda</t>
+  </si>
+  <si>
+    <t>189912</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>189956</t>
+  </si>
+  <si>
     <t>Ballinger</t>
   </si>
   <si>
     <t>190649</t>
   </si>
   <si>
+    <t>Totals for Lender 1 Name: National Westminster Bank Plc</t>
+  </si>
+  <si>
+    <t>188452</t>
+  </si>
+  <si>
+    <t>Nationwide</t>
+  </si>
+  <si>
+    <t>MacDonald</t>
+  </si>
+  <si>
+    <t>189988</t>
+  </si>
+  <si>
+    <t>HARRISON</t>
+  </si>
+  <si>
+    <t>190401</t>
+  </si>
+  <si>
+    <t>Totals for Lender 1 Name: Nationwide</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>189004</t>
+  </si>
+  <si>
     <t>Nationwide Building Society</t>
   </si>
   <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>189410</t>
+  </si>
+  <si>
+    <t>Ingram</t>
+  </si>
+  <si>
+    <t>189989</t>
+  </si>
+  <si>
+    <t>Brennan</t>
+  </si>
+  <si>
+    <t>190400</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>190639</t>
+  </si>
+  <si>
+    <t>Buck</t>
+  </si>
+  <si>
+    <t>190641</t>
+  </si>
+  <si>
     <t>JT</t>
   </si>
   <si>
+    <t>Dix</t>
+  </si>
+  <si>
+    <t>190816</t>
+  </si>
+  <si>
+    <t>Dunn</t>
+  </si>
+  <si>
+    <t>190817</t>
+  </si>
+  <si>
     <t>McMahon</t>
   </si>
   <si>
+    <t>190988</t>
+  </si>
+  <si>
     <t>191009</t>
-  </si>
-  <si>
-    <t>Natwest</t>
-  </si>
-  <si>
-    <t>TOBIN-EMENIKE</t>
-  </si>
-  <si>
-    <t>190554</t>
-  </si>
-  <si>
-    <t>Onesavings Bank Plc</t>
-  </si>
-  <si>
-    <t>Hussain</t>
-  </si>
-  <si>
-    <t>190748</t>
-  </si>
-  <si>
-    <t>190953</t>
-  </si>
-  <si>
-    <t>Paratus Amc Limited</t>
-  </si>
-  <si>
-    <t>Santander Uk Plc</t>
-  </si>
-  <si>
-    <t>Austin</t>
-  </si>
-  <si>
-    <t>190951</t>
-  </si>
-  <si>
-    <t>Conboy</t>
-  </si>
-  <si>
-    <t>184373</t>
-  </si>
-  <si>
-    <t>Scottish Widows</t>
-  </si>
-  <si>
-    <t>Rahman</t>
-  </si>
-  <si>
-    <t>190399</t>
-  </si>
-  <si>
-    <t>Secure Trust Bank</t>
-  </si>
-  <si>
-    <t>rimington-hicks</t>
-  </si>
-  <si>
-    <t>188886</t>
-  </si>
-  <si>
-    <t>The Mortgage Works</t>
-  </si>
-  <si>
-    <t>PRESTIGE</t>
-  </si>
-  <si>
-    <t>Phillpot</t>
-  </si>
-  <si>
-    <t>189032</t>
-  </si>
-  <si>
-    <t>The Royal Bank Of Scotland Plc</t>
-  </si>
-  <si>
-    <t>Brock</t>
-  </si>
-  <si>
-    <t>190882</t>
-  </si>
-  <si>
-    <t>Together Personal Finance Limited</t>
-  </si>
-  <si>
-    <t>Tsb Bank Plc</t>
-  </si>
-  <si>
-    <t>Reeve</t>
-  </si>
-  <si>
-    <t>190623</t>
-  </si>
-  <si>
-    <t>Cushion</t>
-  </si>
-  <si>
-    <t>Clyesdale bank</t>
-  </si>
-  <si>
-    <t>The mortgages work</t>
   </si>
 </sst>
 </file>
@@ -360,10 +669,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,16 +976,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I37"/>
+  <dimension ref="A2:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:XFD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -736,22 +1044,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="1">
-        <v>44221</v>
+        <v>44203</v>
       </c>
       <c r="E4">
-        <v>-6</v>
+        <v>-24</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -762,100 +1070,83 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1">
-        <v>44181</v>
-      </c>
-      <c r="E5">
-        <v>-46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44222</v>
-      </c>
-      <c r="E6">
-        <v>-5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1">
-        <v>44172</v>
-      </c>
-      <c r="E7">
-        <v>-55</v>
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>44215</v>
+        <v>44181</v>
       </c>
       <c r="E8">
-        <v>-12</v>
+        <v>-46</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -866,48 +1157,51 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1">
-        <v>44224</v>
-      </c>
-      <c r="E9">
-        <v>-3</v>
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1">
-        <v>44215</v>
+        <v>44225</v>
       </c>
       <c r="E10">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -918,48 +1212,51 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1">
-        <v>44223</v>
-      </c>
-      <c r="E11">
-        <v>-4</v>
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
-        <v>44209</v>
+        <v>44180</v>
       </c>
       <c r="E12">
-        <v>-18</v>
+        <v>-47</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -970,22 +1267,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="E13">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -996,51 +1293,51 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1">
-        <v>44223</v>
-      </c>
-      <c r="E14">
-        <v>-4</v>
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="E15">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1051,22 +1348,22 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1">
-        <v>44099</v>
+        <v>44214</v>
       </c>
       <c r="E16">
-        <v>-128</v>
+        <v>-13</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1077,22 +1374,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1">
-        <v>44223</v>
+        <v>44218</v>
       </c>
       <c r="E17">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1103,54 +1400,57 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1">
-        <v>44221</v>
-      </c>
-      <c r="E18">
-        <v>-6</v>
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1">
-        <v>44225</v>
+        <v>44142</v>
       </c>
       <c r="E19">
-        <v>-2</v>
+        <v>-85</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>144012.74</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1158,25 +1458,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1">
-        <v>44218</v>
+        <v>44160</v>
       </c>
       <c r="E20">
-        <v>-9</v>
+        <v>-67</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G20">
         <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1184,22 +1487,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1">
-        <v>44222</v>
+        <v>44181</v>
       </c>
       <c r="E21">
-        <v>-5</v>
+        <v>-46</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1210,22 +1513,22 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1">
-        <v>44224</v>
+        <v>44187</v>
       </c>
       <c r="E22">
-        <v>-3</v>
+        <v>-40</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1236,22 +1539,22 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1">
-        <v>44223</v>
+        <v>44207</v>
       </c>
       <c r="E23">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1262,22 +1565,22 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E24">
-        <v>-3</v>
+        <v>-17</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1288,22 +1591,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1">
-        <v>44216</v>
+        <v>44222</v>
       </c>
       <c r="E25">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1314,51 +1617,51 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1">
-        <v>44179</v>
-      </c>
-      <c r="E26">
-        <v>-48</v>
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D27" s="1">
-        <v>44181</v>
+        <v>44172</v>
       </c>
       <c r="E27">
-        <v>-46</v>
+        <v>-55</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1369,110 +1672,1757 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44200</v>
+      </c>
+      <c r="E41">
+        <v>-27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41">
+        <v>110000</v>
+      </c>
+      <c r="H41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44209</v>
+      </c>
+      <c r="E42">
+        <v>-18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44217</v>
+      </c>
+      <c r="E43">
+        <v>-10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44217</v>
+      </c>
+      <c r="E44">
+        <v>-10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44123</v>
+      </c>
+      <c r="E46">
+        <v>-104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46">
+        <v>247766.86</v>
+      </c>
+      <c r="H46" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
         <v>93</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44140</v>
+      </c>
+      <c r="E47">
+        <v>-87</v>
+      </c>
+      <c r="F47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>94</v>
       </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44218</v>
+      </c>
+      <c r="E48">
+        <v>-9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44222</v>
+      </c>
+      <c r="E49">
+        <v>-5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44046</v>
+      </c>
+      <c r="E51">
+        <v>-181</v>
+      </c>
+      <c r="F51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51">
+        <v>110345.86</v>
+      </c>
+      <c r="H51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44088</v>
+      </c>
+      <c r="E52">
+        <v>-139</v>
+      </c>
+      <c r="F52" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52">
+        <v>28957.4</v>
+      </c>
+      <c r="H52" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44214</v>
+      </c>
+      <c r="E53">
+        <v>-13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44216</v>
+      </c>
+      <c r="E54">
+        <v>-11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44217</v>
+      </c>
+      <c r="E55">
+        <v>-10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44219</v>
+      </c>
+      <c r="E56">
+        <v>-8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="1">
         <v>44223</v>
       </c>
-      <c r="E28">
+      <c r="E57">
         <v>-4</v>
       </c>
-      <c r="F28" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="2">
-        <v>191499</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="F57" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44209</v>
+      </c>
+      <c r="E59">
+        <v>-18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44170</v>
+      </c>
+      <c r="E61">
+        <v>-57</v>
+      </c>
+      <c r="F61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44224</v>
+      </c>
+      <c r="E62">
+        <v>-3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E64">
+        <v>-200</v>
+      </c>
+      <c r="F64" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44104</v>
+      </c>
+      <c r="E66">
+        <v>-123</v>
+      </c>
+      <c r="F66" t="s">
+        <v>135</v>
+      </c>
+      <c r="G66">
+        <v>247718.13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>125</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44167</v>
+      </c>
+      <c r="E67">
+        <v>-60</v>
+      </c>
+      <c r="F67" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44200</v>
+      </c>
+      <c r="E68">
+        <v>-27</v>
+      </c>
+      <c r="F68" t="s">
+        <v>135</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44223</v>
+      </c>
+      <c r="E69">
+        <v>-4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>135</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44223</v>
+      </c>
+      <c r="E70">
+        <v>-4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>135</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44224</v>
+      </c>
+      <c r="E71">
+        <v>-3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>135</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44217</v>
+      </c>
+      <c r="E73">
+        <v>-10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44219</v>
+      </c>
+      <c r="E74">
+        <v>-8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>150</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="1">
+        <v>44223</v>
+      </c>
+      <c r="E75">
+        <v>-4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>150</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s">
+        <v>50</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="1">
+        <v>44222</v>
+      </c>
+      <c r="E77">
+        <v>-5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>159</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="1">
+        <v>44223</v>
+      </c>
+      <c r="E78">
+        <v>-4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="1">
         <v>44169</v>
       </c>
-      <c r="E29">
+      <c r="E80">
         <v>-58</v>
       </c>
-      <c r="F29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="2">
-        <v>191498</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="1">
-        <v>44200</v>
-      </c>
-      <c r="E30">
-        <v>-27</v>
-      </c>
-      <c r="F30" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
+      <c r="F80" t="s">
+        <v>165</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="1">
+        <v>44179</v>
+      </c>
+      <c r="E82">
+        <v>-48</v>
+      </c>
+      <c r="F82" t="s">
+        <v>169</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="1">
+        <v>44209</v>
+      </c>
+      <c r="E83">
+        <v>-18</v>
+      </c>
+      <c r="F83" t="s">
+        <v>169</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="1">
+        <v>44209</v>
+      </c>
+      <c r="E84">
+        <v>-18</v>
+      </c>
+      <c r="F84" t="s">
+        <v>169</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="1">
+        <v>44221</v>
+      </c>
+      <c r="E85">
+        <v>-6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>169</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" t="s">
+        <v>87</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="1">
+        <v>44171</v>
+      </c>
+      <c r="E87">
+        <v>-56</v>
+      </c>
+      <c r="F87" t="s">
+        <v>178</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="1">
+        <v>44210</v>
+      </c>
+      <c r="E88">
+        <v>-17</v>
+      </c>
+      <c r="F88" t="s">
+        <v>178</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" s="1">
+        <v>44216</v>
+      </c>
+      <c r="E89">
+        <v>-11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>178</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" s="1">
+        <v>44181</v>
+      </c>
+      <c r="E91">
+        <v>-46</v>
+      </c>
+      <c r="F91" t="s">
+        <v>186</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="1">
+        <v>44197</v>
+      </c>
+      <c r="E92">
+        <v>-30</v>
+      </c>
+      <c r="F92" t="s">
+        <v>186</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="1">
+        <v>44210</v>
+      </c>
+      <c r="E93">
+        <v>-17</v>
+      </c>
+      <c r="F93" t="s">
+        <v>186</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>155</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="1">
+        <v>44216</v>
+      </c>
+      <c r="E94">
+        <v>-11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>186</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="1">
+        <v>44219</v>
+      </c>
+      <c r="E95">
+        <v>-8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>186</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" s="1">
+        <v>44220</v>
+      </c>
+      <c r="E96">
+        <v>-7</v>
+      </c>
+      <c r="F96" t="s">
+        <v>186</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" t="s">
+        <v>65</v>
+      </c>
+      <c r="D97" s="1">
+        <v>44223</v>
+      </c>
+      <c r="E97">
+        <v>-4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>186</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" s="1">
+        <v>44223</v>
+      </c>
+      <c r="E98">
+        <v>-4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>186</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="1">
+        <v>44225</v>
+      </c>
+      <c r="E99">
+        <v>-2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>186</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>155</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" t="s">
+        <v>204</v>
+      </c>
+      <c r="C100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="1">
+        <v>44225</v>
+      </c>
+      <c r="E100">
+        <v>-2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>186</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>91</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D112" s="1"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="1"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="1"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="1"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="1"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="1"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="1"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="1"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="1"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="1"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="1"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="1"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
